--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Gpc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H2">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I2">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J2">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N2">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O2">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P2">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q2">
-        <v>0.328079769745</v>
+        <v>0.1289647310896667</v>
       </c>
       <c r="R2">
-        <v>2.952717927705</v>
+        <v>1.160682579807</v>
       </c>
       <c r="S2">
-        <v>0.007522818902071779</v>
+        <v>0.001208030091944541</v>
       </c>
       <c r="T2">
-        <v>0.01005553195033437</v>
+        <v>0.00171735417652974</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H3">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I3">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J3">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N3">
         <v>20.463629</v>
       </c>
       <c r="O3">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P3">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q3">
-        <v>2.321291755615</v>
+        <v>0.5766718864296668</v>
       </c>
       <c r="R3">
-        <v>20.891625800535</v>
+        <v>5.190046977867001</v>
       </c>
       <c r="S3">
-        <v>0.05322686464312248</v>
+        <v>0.005401763614744435</v>
       </c>
       <c r="T3">
-        <v>0.07114679284485244</v>
+        <v>0.007679230315757422</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H4">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I4">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J4">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N4">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O4">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P4">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q4">
-        <v>0.483298325125</v>
+        <v>0.1012387492706667</v>
       </c>
       <c r="R4">
-        <v>4.349684926125001</v>
+        <v>0.9111487434360003</v>
       </c>
       <c r="S4">
-        <v>0.01108195661809895</v>
+        <v>0.0009483170674373083</v>
       </c>
       <c r="T4">
-        <v>0.01481292721466741</v>
+        <v>0.001348142142565653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H5">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I5">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J5">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N5">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O5">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P5">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q5">
-        <v>6.886338644272501</v>
+        <v>3.599042423042001</v>
       </c>
       <c r="R5">
-        <v>41.318031865635</v>
+        <v>21.594254538252</v>
       </c>
       <c r="S5">
-        <v>0.1579026910420771</v>
+        <v>0.03371271751962032</v>
       </c>
       <c r="T5">
-        <v>0.140709271837813</v>
+        <v>0.03195101215913821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H6">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I6">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J6">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N6">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O6">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P6">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q6">
-        <v>0.507849969655</v>
+        <v>0.0653607324446667</v>
       </c>
       <c r="R6">
-        <v>4.570649726895</v>
+        <v>0.5882465920020001</v>
       </c>
       <c r="S6">
-        <v>0.01164492206912565</v>
+        <v>0.0006122428276130428</v>
       </c>
       <c r="T6">
-        <v>0.01556542666380002</v>
+        <v>0.0008703738293134397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H7">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I7">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J7">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N7">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O7">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P7">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q7">
-        <v>0.4559904369713333</v>
+        <v>0.5191249549150001</v>
       </c>
       <c r="R7">
-        <v>4.103913932742</v>
+        <v>4.672124594235</v>
       </c>
       <c r="S7">
-        <v>0.01045579092267147</v>
+        <v>0.004862713718068</v>
       </c>
       <c r="T7">
-        <v>0.01397594984773381</v>
+        <v>0.006912908683880638</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H8">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I8">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J8">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N8">
         <v>20.463629</v>
       </c>
       <c r="O8">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P8">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q8">
-        <v>3.226309390559333</v>
+        <v>2.321291755615</v>
       </c>
       <c r="R8">
-        <v>29.036784515034</v>
+        <v>20.891625800535</v>
       </c>
       <c r="S8">
-        <v>0.07397878048407562</v>
+        <v>0.0217438540698076</v>
       </c>
       <c r="T8">
-        <v>0.09888527166319624</v>
+        <v>0.03091139769583786</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H9">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I9">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J9">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N9">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O9">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P9">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q9">
-        <v>0.6717250948833334</v>
+        <v>0.4075188674200001</v>
       </c>
       <c r="R9">
-        <v>6.04552585395</v>
+        <v>3.66766980678</v>
       </c>
       <c r="S9">
-        <v>0.01540255360674006</v>
+        <v>0.003817284390227855</v>
       </c>
       <c r="T9">
-        <v>0.02058814281261757</v>
+        <v>0.005426710256867136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H10">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I10">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J10">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N10">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O10">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P10">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q10">
-        <v>9.571161824379001</v>
+        <v>14.48731540641</v>
       </c>
       <c r="R10">
-        <v>57.426970946274</v>
+        <v>86.92389243846</v>
       </c>
       <c r="S10">
-        <v>0.2194652756041307</v>
+        <v>0.1357046443206774</v>
       </c>
       <c r="T10">
-        <v>0.1955685423734369</v>
+        <v>0.1286132077076865</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,14 +1083,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H11">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I11">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J11">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N11">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O11">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P11">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q11">
-        <v>0.7058488542553333</v>
+        <v>0.26309818969</v>
       </c>
       <c r="R11">
-        <v>6.352639688298</v>
+        <v>2.36788370721</v>
       </c>
       <c r="S11">
-        <v>0.01618500618591907</v>
+        <v>0.002464476354086851</v>
       </c>
       <c r="T11">
-        <v>0.02163402428497219</v>
+        <v>0.003503537525987509</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H12">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I12">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J12">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N12">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O12">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P12">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q12">
-        <v>0.1763410083413333</v>
+        <v>0.6765564754543333</v>
       </c>
       <c r="R12">
-        <v>1.058046050048</v>
+        <v>6.089008279088999</v>
       </c>
       <c r="S12">
-        <v>0.00404347232928036</v>
+        <v>0.006337396079867131</v>
       </c>
       <c r="T12">
-        <v>0.003603194115278082</v>
+        <v>0.00900933983239109</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H13">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I13">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J13">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N13">
         <v>20.463629</v>
       </c>
       <c r="O13">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P13">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q13">
-        <v>1.247681102549333</v>
+        <v>3.025254235634333</v>
       </c>
       <c r="R13">
-        <v>7.486086615296</v>
+        <v>27.227288120709</v>
       </c>
       <c r="S13">
-        <v>0.02860913670267207</v>
+        <v>0.02833796590393371</v>
       </c>
       <c r="T13">
-        <v>0.02549399739025805</v>
+        <v>0.04028568859666464</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H14">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I14">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J14">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N14">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O14">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P14">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q14">
-        <v>0.2597700981333333</v>
+        <v>0.5311043632413334</v>
       </c>
       <c r="R14">
-        <v>1.5586205888</v>
+        <v>4.779939269172</v>
       </c>
       <c r="S14">
-        <v>0.005956488587971717</v>
+        <v>0.0049749264573156</v>
       </c>
       <c r="T14">
-        <v>0.005307909361091268</v>
+        <v>0.007072432041528549</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H15">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I15">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J15">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N15">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O15">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P15">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q15">
-        <v>3.701367814464001</v>
+        <v>18.880785747934</v>
       </c>
       <c r="R15">
-        <v>14.805471257856</v>
+        <v>113.284714487604</v>
       </c>
       <c r="S15">
-        <v>0.08487179742844918</v>
+        <v>0.1768588756813173</v>
       </c>
       <c r="T15">
-        <v>0.05042028833036648</v>
+        <v>0.167616866959971</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H16">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I16">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J16">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N16">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O16">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P16">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q16">
-        <v>0.2729664672853334</v>
+        <v>0.3428862015393334</v>
       </c>
       <c r="R16">
-        <v>1.637798803712</v>
+        <v>3.085975813854</v>
       </c>
       <c r="S16">
-        <v>0.006259079312698641</v>
+        <v>0.003211861460666158</v>
       </c>
       <c r="T16">
-        <v>0.005577552140832468</v>
+        <v>0.004566031699616938</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4136363333333333</v>
+        <v>0.2339355</v>
       </c>
       <c r="H17">
-        <v>1.240909</v>
+        <v>0.467871</v>
       </c>
       <c r="I17">
-        <v>0.2933933655608953</v>
+        <v>0.1158956859312148</v>
       </c>
       <c r="J17">
-        <v>0.3066551771687498</v>
+        <v>0.08036858123741962</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N17">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O17">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P17">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q17">
-        <v>0.3987767238158889</v>
+        <v>0.3568615092065</v>
       </c>
       <c r="R17">
-        <v>3.588990514343</v>
+        <v>2.141169055239</v>
       </c>
       <c r="S17">
-        <v>0.009143889237547678</v>
+        <v>0.003342770059191304</v>
       </c>
       <c r="T17">
-        <v>0.01222236924421473</v>
+        <v>0.003168088919093086</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4136363333333333</v>
+        <v>0.2339355</v>
       </c>
       <c r="H18">
-        <v>1.240909</v>
+        <v>0.467871</v>
       </c>
       <c r="I18">
-        <v>0.2933933655608953</v>
+        <v>0.1158956859312148</v>
       </c>
       <c r="J18">
-        <v>0.3066551771687498</v>
+        <v>0.08036858123741962</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N18">
         <v>20.463629</v>
       </c>
       <c r="O18">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P18">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q18">
-        <v>2.821500155417888</v>
+        <v>1.5957230939765</v>
       </c>
       <c r="R18">
-        <v>25.393501398761</v>
+        <v>9.574338563859</v>
       </c>
       <c r="S18">
-        <v>0.06469656668521127</v>
+        <v>0.01494735420798248</v>
       </c>
       <c r="T18">
-        <v>0.08647800802448098</v>
+        <v>0.01416625923935818</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4136363333333333</v>
+        <v>0.2339355</v>
       </c>
       <c r="H19">
-        <v>1.240909</v>
+        <v>0.467871</v>
       </c>
       <c r="I19">
-        <v>0.2933933655608953</v>
+        <v>0.1158956859312148</v>
       </c>
       <c r="J19">
-        <v>0.3066551771687498</v>
+        <v>0.08036858123741962</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N19">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O19">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P19">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q19">
-        <v>0.5874428736305556</v>
+        <v>0.280140256562</v>
       </c>
       <c r="R19">
-        <v>5.286985862675</v>
+        <v>1.680841539372</v>
       </c>
       <c r="S19">
-        <v>0.01346997517423933</v>
+        <v>0.00262411170118026</v>
       </c>
       <c r="T19">
-        <v>0.01800492175844779</v>
+        <v>0.002486985062018566</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4136363333333333</v>
+        <v>0.2339355</v>
       </c>
       <c r="H20">
-        <v>1.240909</v>
+        <v>0.467871</v>
       </c>
       <c r="I20">
-        <v>0.2933933655608953</v>
+        <v>0.1158956859312148</v>
       </c>
       <c r="J20">
-        <v>0.3066551771687498</v>
+        <v>0.08036858123741962</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N20">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O20">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P20">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q20">
-        <v>8.370255702703501</v>
+        <v>9.958999642250999</v>
       </c>
       <c r="R20">
-        <v>50.221534216221</v>
+        <v>39.835998569004</v>
       </c>
       <c r="S20">
-        <v>0.1919286820531903</v>
+        <v>0.09328729763441571</v>
       </c>
       <c r="T20">
-        <v>0.1710303030193392</v>
+        <v>0.05894162599570287</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2339355</v>
+      </c>
+      <c r="H21">
+        <v>0.467871</v>
+      </c>
+      <c r="I21">
+        <v>0.1158956859312148</v>
+      </c>
+      <c r="J21">
+        <v>0.08036858123741962</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.7731246666666668</v>
+      </c>
+      <c r="N21">
+        <v>2.319374</v>
+      </c>
+      <c r="O21">
+        <v>0.01461790673943223</v>
+      </c>
+      <c r="P21">
+        <v>0.01997823025522497</v>
+      </c>
+      <c r="Q21">
+        <v>0.180861305459</v>
+      </c>
+      <c r="R21">
+        <v>1.085167832754</v>
+      </c>
+      <c r="S21">
+        <v>0.001694152328445026</v>
+      </c>
+      <c r="T21">
+        <v>0.001605622021246923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H22">
+        <v>2.748636</v>
+      </c>
+      <c r="I22">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J22">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.525469666666667</v>
+      </c>
+      <c r="N22">
+        <v>4.576409</v>
+      </c>
+      <c r="O22">
+        <v>0.02884292053092702</v>
+      </c>
+      <c r="P22">
+        <v>0.03941949540871108</v>
+      </c>
+      <c r="Q22">
+        <v>1.397653614236</v>
+      </c>
+      <c r="R22">
+        <v>12.578882528124</v>
+      </c>
+      <c r="S22">
+        <v>0.01309201058185604</v>
+      </c>
+      <c r="T22">
+        <v>0.01861180379681652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H23">
+        <v>2.748636</v>
+      </c>
+      <c r="I23">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J23">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.821209666666667</v>
+      </c>
+      <c r="N23">
+        <v>20.463629</v>
+      </c>
+      <c r="O23">
+        <v>0.1289724814852373</v>
+      </c>
+      <c r="P23">
+        <v>0.1762661356122381</v>
+      </c>
+      <c r="Q23">
+        <v>6.249674151116</v>
+      </c>
+      <c r="R23">
+        <v>56.247067360044</v>
+      </c>
+      <c r="S23">
+        <v>0.05854154368876909</v>
+      </c>
+      <c r="T23">
+        <v>0.08322355976461997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H24">
+        <v>2.748636</v>
+      </c>
+      <c r="I24">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J24">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.197510666666667</v>
+      </c>
+      <c r="N24">
+        <v>3.592532</v>
+      </c>
+      <c r="O24">
+        <v>0.02264201363575945</v>
+      </c>
+      <c r="P24">
+        <v>0.03094474263109954</v>
+      </c>
+      <c r="Q24">
+        <v>1.097173642928</v>
+      </c>
+      <c r="R24">
+        <v>9.874562786352</v>
+      </c>
+      <c r="S24">
+        <v>0.01027737401959843</v>
+      </c>
+      <c r="T24">
+        <v>0.01461047312811964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.4136363333333333</v>
-      </c>
-      <c r="H21">
-        <v>1.240909</v>
-      </c>
-      <c r="I21">
-        <v>0.2933933655608953</v>
-      </c>
-      <c r="J21">
-        <v>0.3066551771687498</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.492337666666667</v>
-      </c>
-      <c r="N21">
-        <v>4.477012999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.04824325997845007</v>
-      </c>
-      <c r="P21">
-        <v>0.06169657821187188</v>
-      </c>
-      <c r="Q21">
-        <v>0.6172850805352221</v>
-      </c>
-      <c r="R21">
-        <v>5.555565724817</v>
-      </c>
-      <c r="S21">
-        <v>0.01415425241070671</v>
-      </c>
-      <c r="T21">
-        <v>0.0189195751222672</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H25">
+        <v>2.748636</v>
+      </c>
+      <c r="I25">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J25">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>42.571562</v>
+      </c>
+      <c r="N25">
+        <v>85.143124</v>
+      </c>
+      <c r="O25">
+        <v>0.8049246776086439</v>
+      </c>
+      <c r="P25">
+        <v>0.7333913960927264</v>
+      </c>
+      <c r="Q25">
+        <v>39.004575963144</v>
+      </c>
+      <c r="R25">
+        <v>234.027455778864</v>
+      </c>
+      <c r="S25">
+        <v>0.3653611424526131</v>
+      </c>
+      <c r="T25">
+        <v>0.3462686832702278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H26">
+        <v>2.748636</v>
+      </c>
+      <c r="I26">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J26">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.7731246666666668</v>
+      </c>
+      <c r="N26">
+        <v>2.319374</v>
+      </c>
+      <c r="O26">
+        <v>0.01461790673943223</v>
+      </c>
+      <c r="P26">
+        <v>0.01997823025522497</v>
+      </c>
+      <c r="Q26">
+        <v>0.708346097096</v>
+      </c>
+      <c r="R26">
+        <v>6.375114873864001</v>
+      </c>
+      <c r="S26">
+        <v>0.006635173768621154</v>
+      </c>
+      <c r="T26">
+        <v>0.009432665179060159</v>
       </c>
     </row>
   </sheetData>
